--- a/DateBase/orders/Nhat 48_2026-1-16.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -529,10 +529,267 @@
       <c r="A11" t="str">
         <v>5</v>
       </c>
+      <c r="C11" t="str">
+        <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
+      </c>
+      <c r="F11" t="str">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>6</v>
+      </c>
+      <c r="C12" t="str">
+        <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
+      </c>
+      <c r="F12" t="str">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>1</v>
+      </c>
+      <c r="C13" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>577_腊梅白_wax white_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>2</v>
+      </c>
+      <c r="C18" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>181_月光女神_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F20" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F21" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>3</v>
+      </c>
+      <c r="C27" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>324_小手球单瓣_Spiraea flower_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F31" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>406_千鸟飞燕 白_larkspur white_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>500_千鸟飞燕 粉_larkspur pink_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>642_桃花枝_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="C36" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="C37" t="str" xml:space="preserve">
+        <v xml:space="preserve">416_翠珠紫_Didiscus caeruleus
+blue_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>546_非洲菊绿宝石_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -590,7 +847,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01502015010150105060350</v>
+        <v>015020150101501050603593321381271021867555851610152015552510155101050</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-16.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -786,10 +786,317 @@
       <c r="A41" t="str">
         <v>4</v>
       </c>
+      <c r="C41" t="str">
+        <v>869_中国腊梅_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F41" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>861_小白果小把_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>5</v>
+      </c>
+      <c r="C43" t="str">
+        <v>797_大菊黄_undefined_undefined_5stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>798_大菊粉_undefined_undefined_5stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>801_烟花菊橙红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>6</v>
+      </c>
+      <c r="C46" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>611_康乃馨奶油白_cream white_undefined_20stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>631_吸色康乃馨宝蓝_tinted blue_undefined_20stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>848_吸色康乃馨墨兰_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>632_吸色康乃馨紫_tinted purple_undefined_20stems</v>
+      </c>
+      <c r="F50" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v/>
+      </c>
+      <c r="C51" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F51" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>624_多丁白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>831_多丁粉星太子_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>850_多丁樱桃太子_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>7</v>
+      </c>
+      <c r="C58" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>643_巧克力秋英_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>682_锦鲤粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>871_洋牡丹高山雪_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F61" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>840_洋牡丹塞纳河_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>549_虞美人 混色_Icelandic Poppy_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>591_洋牡丹黑_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F65" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>492_细米花_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>8</v>
+      </c>
+      <c r="C67" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F67" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F68" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F69" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F70" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>125_绣球蓝_Hydrangea Light Blue S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F71" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>119_绣球璀璨_Hydrangea_Hydrangea L._1stem</v>
+      </c>
+      <c r="F72" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>129_绣球初恋_Hydrangea Peacoke_Hydrangea L._1stem</v>
+      </c>
+      <c r="F73" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
+      <c r="A74" t="str">
+        <v>9</v>
+      </c>
+      <c r="C74" t="str" xml:space="preserve">
+        <v xml:space="preserve">463_玉兰枝_magnolia flower
+white/purple_undefined_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" xml:space="preserve">
+      <c r="C75" t="str" xml:space="preserve">
+        <v xml:space="preserve">463_玉兰枝_magnolia flower
+white/purple_undefined_1bunch</v>
+      </c>
+      <c r="F75" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" xml:space="preserve">
+      <c r="C76" t="str" xml:space="preserve">
+        <v xml:space="preserve">463_玉兰枝_magnolia flower
+white/purple_undefined_1bunch</v>
+      </c>
+      <c r="F76" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L76"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -847,7 +1154,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015020150101501050603593321381271021867555851610152015552510155101050</v>
+        <v>0150201501015010506035933213812710218675558516101520155525101551010551010510155101010101020555510555510101010551010202010111</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2026-1-16.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-16.xlsx
@@ -1156,6 +1156,9 @@
       <c r="G2" t="str">
         <v>0150201501015010506035933213812710218675558516101520155525101551010551010510155101010101020555510555510101010551010202010111</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
